--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\cat-and-keyboard-Gamejam\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B0336B-2B19-4AFA-A882-9DB3A53BCBD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CBD9E-8B91-4C09-B24F-B92086207A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,7 +682,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\cat-and-keyboard-Gamejam\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F9ABE3-32BB-47C7-A338-F48FCABB664F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE635A8-1A17-411B-BB50-752491179FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2081,7 @@
         <v>50</v>
       </c>
       <c r="F54" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\cat-and-keyboard-Gamejam\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE635A8-1A17-411B-BB50-752491179FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16E7D81-49CC-4C27-8AA5-70D042A00268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -3516,7 +3516,7 @@
         <v>8</v>
       </c>
       <c r="B119" s="6">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>41</v>
@@ -3528,7 +3528,7 @@
         <v>42</v>
       </c>
       <c r="F119" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -3539,7 +3539,7 @@
         <v>16</v>
       </c>
       <c r="B120" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\cat-and-keyboard-Gamejam\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16E7D81-49CC-4C27-8AA5-70D042A00268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AAFE94-10B4-4A40-BFCC-5E164CAC5D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6670" yWindow="2960" windowWidth="15000" windowHeight="10820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="138">
   <si>
     <t>标志</t>
   </si>
@@ -447,6 +447,10 @@
   </si>
   <si>
     <t>&lt;color=#336629&gt;祂&lt;/color&gt;怎么会在这...可恶（小声）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -978,8 +982,8 @@
       <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
+      <c r="C3" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>

--- a/Assets/StreamingAssets/Excel/Dialog.xlsx
+++ b/Assets/StreamingAssets/Excel/Dialog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuanjie_project\cat-and-keyboard-Gamejam\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AAFE94-10B4-4A40-BFCC-5E164CAC5D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C193585-9249-4DA4-BE7B-9A2942FAF018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6670" yWindow="2960" windowWidth="15000" windowHeight="10820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>【事件触发：“退出游戏”UI向右边移动】</t>
   </si>
   <si>
-    <t>别急着走啊，求你了</t>
-  </si>
-  <si>
     <t>【事件触发：“退出游戏”UI回到原位】</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>【事件触发：“开始游戏”掉到地上】</t>
   </si>
   <si>
-    <t>呃...看来确实挺严重的</t>
-  </si>
-  <si>
     <t>【事件触发：“开始游戏-备用”出现】</t>
   </si>
   <si>
@@ -204,15 +198,9 @@
     <t>【事件触发：玩家被施加混乱】</t>
   </si>
   <si>
-    <t>没想到它居然有扰乱行动的能力</t>
-  </si>
-  <si>
     <t>发生什么事了..</t>
   </si>
   <si>
-    <t>哼，它比我想象中要难对付</t>
-  </si>
-  <si>
     <t>谨慎行动吧，冒险者</t>
   </si>
   <si>
@@ -303,15 +291,9 @@
     <t>等下，我不是叫你别去拿了吗</t>
   </si>
   <si>
-    <t>你要把我的游戏搞崩溃吗</t>
-  </si>
-  <si>
     <t>竟然敢破坏我的游戏</t>
   </si>
   <si>
-    <t>别让我再看到你！！！</t>
-  </si>
-  <si>
     <t>【事件触发：游戏强制关闭】</t>
   </si>
   <si>
@@ -372,9 +354,6 @@
     <t>这是...</t>
   </si>
   <si>
-    <t>快给我！！！</t>
-  </si>
-  <si>
     <t>...?</t>
   </si>
   <si>
@@ -399,9 +378,6 @@
     <t>什么，原来你的目的是...</t>
   </si>
   <si>
-    <t>哼...就是你想的那样</t>
-  </si>
-  <si>
     <t>【事件触发：BOSS吸收核心，化身出现】</t>
   </si>
   <si>
@@ -411,16 +387,7 @@
     <t>至于你...</t>
   </si>
   <si>
-    <t>你干得不错</t>
-  </si>
-  <si>
-    <t>但我也留不得你！</t>
-  </si>
-  <si>
     <t>【互动：玩家击败BOSS三阶段】</t>
-  </si>
-  <si>
-    <t>是你赢了....你走吧...</t>
   </si>
   <si>
     <t>就这样离开了吗..（内心）</t>
@@ -451,6 +418,161 @@
   </si>
   <si>
     <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别急着走啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呃...看来 #Error_Code:UI_0x00A3F# 确实挺严重的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼，对你来讲应该不会太困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要把我的游戏搞崩溃吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别让我再□▲☆ (OVERLOADED_看到你！！！ PROCESS) □▲☆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扰乱行动的能力在这里触发了吗&lt;CMD_CONFUSION_0xFAED.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>快给我！ ▓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>▒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;%█ 给我！ ▓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>▒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;%█ 给我！！！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哼…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你干得不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但▓你▓必▓需▓死▓在▓这▓！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">是你赢了CRITICAL. ERROR_CODE: 727. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>▒▓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> □▲☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>▒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你走吧...</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +580,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +600,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -485,20 +608,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -509,6 +619,49 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -570,10 +723,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -599,9 +753,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -905,17 +1063,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="4.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.453125" style="1" bestFit="1" customWidth="1"/>
@@ -940,7 +1098,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
@@ -983,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F3" s="6">
         <v>1</v>
@@ -1012,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6">
         <v>2</v>
@@ -1317,8 +1475,8 @@
       <c r="D18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>26</v>
+      <c r="E18" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="F18" s="6">
         <v>9</v>
@@ -1379,7 +1537,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F21" s="6">
         <v>-11</v>
@@ -1402,7 +1560,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="6">
         <v>11</v>
@@ -1440,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="6">
         <v>-12</v>
@@ -1463,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="6">
         <v>-13</v>
@@ -1486,7 +1644,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="6">
         <v>-14</v>
@@ -1509,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F27" s="6">
         <v>13</v>
@@ -1532,7 +1690,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F28" s="6">
         <v>14</v>
@@ -1570,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F30" s="6">
         <v>-15</v>
@@ -1593,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" s="6">
         <v>16</v>
@@ -1631,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F33" s="6">
         <v>-16</v>
@@ -1654,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F34" s="6">
         <v>-17</v>
@@ -1677,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F35" s="6">
         <v>18</v>
@@ -1700,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" s="6">
         <v>19</v>
@@ -1723,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" s="6">
         <v>20</v>
@@ -1746,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F38" s="6">
         <v>21</v>
@@ -1763,13 +1921,13 @@
         <v>21</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F39" s="6">
         <v>22</v>
@@ -1807,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="6">
         <v>23</v>
@@ -1830,7 +1988,7 @@
         <v>10</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F42" s="6">
         <v>31</v>
@@ -1853,7 +2011,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F43" s="6">
         <v>24</v>
@@ -1870,13 +2028,13 @@
         <v>24</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="6">
         <v>25</v>
@@ -1914,7 +2072,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="6">
         <v>26</v>
@@ -1937,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" s="6">
         <v>30</v>
@@ -1960,7 +2118,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="6">
         <v>27</v>
@@ -1998,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F50" s="6">
         <v>28</v>
@@ -2021,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F51" s="6">
         <v>29</v>
@@ -2059,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F53" s="6">
         <v>-23</v>
@@ -2082,7 +2240,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F54" s="6">
         <v>32</v>
@@ -2105,7 +2263,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F55" s="6">
         <v>32</v>
@@ -2128,7 +2286,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F56" s="6">
         <v>33</v>
@@ -2145,13 +2303,13 @@
         <v>33</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F57" s="6">
         <v>34</v>
@@ -2189,7 +2347,7 @@
         <v>10</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F59" s="6">
         <v>-24</v>
@@ -2212,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F60" s="6">
         <v>37</v>
@@ -2235,10 +2393,10 @@
         <v>10</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F61" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -2273,7 +2431,7 @@
         <v>10</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F63" s="6">
         <v>-25</v>
@@ -2296,7 +2454,7 @@
         <v>10</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="F64" s="6">
         <v>40</v>
@@ -2313,13 +2471,13 @@
         <v>40</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F65" s="6">
         <v>41</v>
@@ -2342,7 +2500,7 @@
         <v>10</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="F66" s="6">
         <v>42</v>
@@ -2365,7 +2523,7 @@
         <v>10</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F67" s="6">
         <v>43</v>
@@ -2403,7 +2561,7 @@
         <v>10</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F69" s="6">
         <v>-26</v>
@@ -2420,13 +2578,13 @@
         <v>44</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F70" s="6">
         <v>45</v>
@@ -2449,7 +2607,7 @@
         <v>10</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F71" s="6">
         <v>46</v>
@@ -2472,7 +2630,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F72" s="6">
         <v>47</v>
@@ -2489,13 +2647,13 @@
         <v>47</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F73" s="6">
         <v>48</v>
@@ -2533,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F75" s="6">
         <v>-27</v>
@@ -2556,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F76" s="6">
         <v>-28</v>
@@ -2579,7 +2737,7 @@
         <v>10</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F77" s="6">
         <v>50</v>
@@ -2596,13 +2754,13 @@
         <v>50</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F78" s="6">
         <v>51</v>
@@ -2625,7 +2783,7 @@
         <v>10</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F79" s="6">
         <v>52</v>
@@ -2663,7 +2821,7 @@
         <v>10</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F81" s="6">
         <v>-29</v>
@@ -2686,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F82" s="6">
         <v>54</v>
@@ -2709,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="6">
         <v>55</v>
@@ -2747,7 +2905,7 @@
         <v>10</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F85" s="6">
         <v>-30</v>
@@ -2770,7 +2928,7 @@
         <v>10</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F86" s="6">
         <v>57</v>
@@ -2793,7 +2951,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F87" s="6">
         <v>58</v>
@@ -2810,13 +2968,13 @@
         <v>58</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F88" s="6">
         <v>59</v>
@@ -2839,7 +2997,7 @@
         <v>10</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F89" s="6">
         <v>60</v>
@@ -2862,13 +3020,13 @@
         <v>10</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="F90" s="6">
         <v>61</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H90" s="6" t="s">
         <v>14</v>
@@ -2889,7 +3047,7 @@
         <v>10</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F91" s="6">
         <v>62</v>
@@ -2906,13 +3064,13 @@
         <v>62</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F92" s="6">
         <v>63</v>
@@ -2929,13 +3087,13 @@
         <v>63</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F93" s="6">
         <v>64</v>
@@ -2973,16 +3131,16 @@
         <v>10</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F95" s="6">
         <v>-31</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I95" s="6"/>
     </row>
@@ -3000,7 +3158,7 @@
         <v>10</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F96" s="6">
         <v>66</v>
@@ -3023,7 +3181,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F97" s="6">
         <v>67</v>
@@ -3046,7 +3204,7 @@
         <v>10</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F98" s="6">
         <v>68</v>
@@ -3069,16 +3227,16 @@
         <v>10</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="F99" s="6">
         <v>69</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I99" s="6"/>
     </row>
@@ -3111,7 +3269,7 @@
         <v>10</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F101" s="6">
         <v>-32</v>
@@ -3134,7 +3292,7 @@
         <v>10</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F102" s="6">
         <v>-33</v>
@@ -3157,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F103" s="6">
         <v>71</v>
@@ -3180,7 +3338,7 @@
         <v>10</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F104" s="6">
         <v>72</v>
@@ -3203,7 +3361,7 @@
         <v>10</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F105" s="6">
         <v>73</v>
@@ -3220,13 +3378,13 @@
         <v>73</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F106" s="6">
         <v>74</v>
@@ -3249,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F107" s="6">
         <v>75</v>
@@ -3272,7 +3430,7 @@
         <v>10</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F108" s="6">
         <v>76</v>
@@ -3295,7 +3453,7 @@
         <v>10</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F109" s="6">
         <v>77</v>
@@ -3312,13 +3470,13 @@
         <v>77</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F110" s="6">
         <v>78</v>
@@ -3356,7 +3514,7 @@
         <v>10</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F112" s="6">
         <v>-34</v>
@@ -3373,13 +3531,13 @@
         <v>79</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F113" s="6">
         <v>80</v>
@@ -3402,7 +3560,7 @@
         <v>10</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F114" s="6">
         <v>81</v>
@@ -3419,19 +3577,19 @@
         <v>81</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F115" s="6">
         <v>82</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>14</v>
@@ -3452,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F116" s="6">
         <v>83</v>
@@ -3475,13 +3633,13 @@
         <v>10</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F117" s="6">
         <v>84</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>14</v>
@@ -3502,13 +3660,13 @@
         <v>10</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F118" s="6">
         <v>85</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>14</v>
@@ -3523,13 +3681,13 @@
         <v>85</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F119" s="6">
         <v>86</v>
@@ -3567,7 +3725,7 @@
         <v>10</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F121" s="6">
         <v>-35</v>
@@ -3590,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F122" s="6">
         <v>89</v>
@@ -3607,13 +3765,13 @@
         <v>89</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F123" s="6">
         <v>90</v>
@@ -3636,13 +3794,13 @@
         <v>10</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="F124" s="6">
         <v>91</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>14</v>
@@ -3657,13 +3815,13 @@
         <v>91</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F125" s="6">
         <v>92</v>
@@ -3686,7 +3844,7 @@
         <v>10</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F126" s="6">
         <v>93</v>
@@ -3724,7 +3882,7 @@
         <v>10</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F128" s="6">
         <v>-36</v>
@@ -3747,7 +3905,7 @@
         <v>10</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F129" s="6">
         <v>-37</v>
@@ -3764,13 +3922,13 @@
         <v>94</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F130" s="6">
         <v>95</v>
@@ -3793,7 +3951,7 @@
         <v>10</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F131" s="6">
         <v>96</v>
@@ -3802,7 +3960,7 @@
       <c r="H131" s="6"/>
       <c r="I131" s="6"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>8</v>
       </c>
@@ -3816,16 +3974,16 @@
         <v>10</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F132" s="6">
         <v>97</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I132" s="6"/>
     </row>
@@ -3837,13 +3995,13 @@
         <v>97</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F133" s="6">
         <v>98</v>
@@ -3866,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F134" s="6">
         <v>99</v>
@@ -3889,7 +4047,7 @@
         <v>10</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F135" s="6">
         <v>100</v>
@@ -3927,7 +4085,7 @@
         <v>10</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F137" s="6">
         <v>-38</v>
@@ -3950,7 +4108,7 @@
         <v>10</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F138" s="6">
         <v>102</v>
@@ -3973,7 +4131,7 @@
         <v>10</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F139" s="6">
         <v>103</v>
@@ -3996,7 +4154,7 @@
         <v>10</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F140" s="6">
         <v>104</v>
@@ -4013,13 +4171,13 @@
         <v>104</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F141" s="6">
         <v>105</v>
@@ -4042,7 +4200,7 @@
         <v>10</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F142" s="6">
         <v>106</v>
@@ -4065,7 +4223,7 @@
         <v>10</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F143" s="6">
         <v>-39</v>
@@ -4088,7 +4246,7 @@
         <v>10</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F144" s="6">
         <v>107</v>
@@ -4111,7 +4269,7 @@
         <v>10</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F145" s="6">
         <v>108</v>
@@ -4134,7 +4292,7 @@
         <v>10</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F146" s="6">
         <v>109</v>
@@ -4157,7 +4315,7 @@
         <v>10</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F147" s="6">
         <v>110</v>
@@ -4195,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F149" s="6">
         <v>-40</v>
@@ -4204,7 +4362,7 @@
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="16" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>8</v>
       </c>
@@ -4218,7 +4376,7 @@
         <v>10</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F150" s="6">
         <v>112</v>
@@ -4235,13 +4393,13 @@
         <v>112</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F151" s="6">
         <v>113</v>
